--- a/Mail/ChinaUnion_Agent/Template/ImportError_Template.xlsx
+++ b/Mail/ChinaUnion_Agent/Template/ImportError_Template.xlsx
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="11790" windowHeight="1515" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="11790" windowHeight="1515" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ESS" sheetId="1" r:id="rId1"/>
     <sheet name="CBSS" sheetId="2" r:id="rId2"/>
+    <sheet name="沃易销" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="12">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -589,7 +590,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
@@ -639,4 +640,60 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="37.375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="27.75" customWidth="1"/>
+    <col min="5" max="5" width="33.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="111" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>